--- a/XlsxToLua/bin/Debug/TestExcel/System.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/System.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>系统ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,7 +198,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>func:CheckRewardList</t>
+    <t>func:CheckRewardListField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -826,9 +827,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:17" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
       <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -901,7 +905,7 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="M7">
         <v>10</v>
@@ -936,7 +940,7 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>100001</v>
       </c>
       <c r="M8">
         <v>5</v>

--- a/XlsxToLua/bin/Debug/TestExcel/System.xlsx
+++ b/XlsxToLua/bin/Debug/TestExcel/System.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="config" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="61">
   <si>
     <t>系统ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,99 +106,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>array[dict[3]:2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励物1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奖励物2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openCondition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dict[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需玩家等级（不限填-1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启条件（同时满足三个条件）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需Vip等级（不限填-1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所需通关关卡（不限填-1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>func:CheckRewardListField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rankLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vipLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelLimit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>openRewards</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>array[dict[3]:2]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励物1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>count</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励物2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>openCondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[3]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所需玩家等级（不限填-1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启条件（同时满足三个条件）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rankLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所需Vip等级（不限填-1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>vipLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所需通关关卡（不限填-1）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>levelLimit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>func:CheckRewardListField</t>
+    <t>exportDatabaseTableName</t>
+  </si>
+  <si>
+    <t>systemId(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemName(VARCHAR(20))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>help(VARCHAR(100))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openConditionRankLimit(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openConditionVipLimit(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>openConditionLevelLimit(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardType1(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardId1(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardCount1(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardType2(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardId2(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rewardCount2(INT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>system</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,7 +278,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,8 +297,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -266,13 +327,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -281,6 +357,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -362,9 +444,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -660,22 +739,29 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:Q8"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
     <col min="4" max="4" width="21.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.625" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
     <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="13.25" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -692,46 +778,46 @@
         <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -743,37 +829,37 @@
         <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="1" customFormat="1" ht="14.1" x14ac:dyDescent="0.25">
@@ -788,43 +874,43 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
@@ -836,41 +922,60 @@
         <v>9</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="I5">
-        <v>-1</v>
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>-1</v>
@@ -881,54 +986,39 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7">
-        <v>25</v>
-      </c>
-      <c r="G7">
+        <v>18</v>
+      </c>
+      <c r="E7">
         <v>-1</v>
       </c>
-      <c r="H7">
-        <v>-1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>100001</v>
-      </c>
-      <c r="M7">
-        <v>10</v>
-      </c>
-      <c r="N7">
+      <c r="I7">
         <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -943,9 +1033,44 @@
         <v>100001</v>
       </c>
       <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>100001</v>
+      </c>
+      <c r="M9">
         <v>5</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>-1</v>
       </c>
     </row>
@@ -958,13 +1083,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <sheetPr codeName="Sheet2">
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
